--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2468136666666667</v>
+        <v>0.2679376666666667</v>
       </c>
       <c r="H2">
-        <v>0.740441</v>
+        <v>0.8038130000000001</v>
       </c>
       <c r="I2">
-        <v>0.1024330939624956</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="J2">
-        <v>0.1024330939624956</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3081963333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N2">
-        <v>0.924589</v>
+        <v>0.487956</v>
       </c>
       <c r="O2">
-        <v>0.09210955608663025</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P2">
-        <v>0.09210955608663024</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q2">
-        <v>0.07606706708322224</v>
+        <v>0.04358059735866666</v>
       </c>
       <c r="R2">
-        <v>0.684603603749</v>
+        <v>0.3922253762280001</v>
       </c>
       <c r="S2">
-        <v>0.009435066813465552</v>
+        <v>0.006214568522066436</v>
       </c>
       <c r="T2">
-        <v>0.009435066813465551</v>
+        <v>0.006214568522066436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2468136666666667</v>
+        <v>0.2679376666666667</v>
       </c>
       <c r="H3">
-        <v>0.740441</v>
+        <v>0.8038130000000001</v>
       </c>
       <c r="I3">
-        <v>0.1024330939624956</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="J3">
-        <v>0.1024330939624956</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>6.621117999999999</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q3">
-        <v>0.5447274703375555</v>
+        <v>0.5913489692148889</v>
       </c>
       <c r="R3">
-        <v>4.902547233038</v>
+        <v>5.322140722934001</v>
       </c>
       <c r="S3">
-        <v>0.06756590302268294</v>
+        <v>0.08432602837896754</v>
       </c>
       <c r="T3">
-        <v>0.06756590302268294</v>
+        <v>0.08432602837896752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2679376666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.8038130000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.1378282777968203</v>
+      </c>
+      <c r="J4">
+        <v>0.1378282777968203</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.2468136666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.740441</v>
-      </c>
-      <c r="I4">
-        <v>0.1024330939624956</v>
-      </c>
-      <c r="J4">
-        <v>0.1024330939624956</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.83074</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N4">
-        <v>2.49222</v>
+        <v>0.033305</v>
       </c>
       <c r="O4">
-        <v>0.2482803471274498</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P4">
-        <v>0.2482803471274497</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q4">
-        <v>0.2050379854466667</v>
+        <v>0.002974554662777778</v>
       </c>
       <c r="R4">
-        <v>1.84534186902</v>
+        <v>0.026770991965</v>
       </c>
       <c r="S4">
-        <v>0.02543212412634708</v>
+        <v>0.0004241698116785585</v>
       </c>
       <c r="T4">
-        <v>0.02543212412634708</v>
+        <v>0.0004241698116785584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.086058666666667</v>
+        <v>0.2679376666666667</v>
       </c>
       <c r="H5">
-        <v>3.258176</v>
+        <v>0.8038130000000001</v>
       </c>
       <c r="I5">
-        <v>0.4507382064936274</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="J5">
-        <v>0.4507382064936274</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3081963333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N5">
-        <v>0.924589</v>
+        <v>3.480078</v>
       </c>
       <c r="O5">
-        <v>0.09210955608663025</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P5">
-        <v>0.09210955608663024</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q5">
-        <v>0.3347192988515556</v>
+        <v>0.3108146597126667</v>
       </c>
       <c r="R5">
-        <v>3.012473689664</v>
+        <v>2.797331937414</v>
       </c>
       <c r="S5">
-        <v>0.0415172961114119</v>
+        <v>0.04432199459200403</v>
       </c>
       <c r="T5">
-        <v>0.0415172961114119</v>
+        <v>0.04432199459200403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.086058666666667</v>
+        <v>0.2679376666666667</v>
       </c>
       <c r="H6">
-        <v>3.258176</v>
+        <v>0.8038130000000001</v>
       </c>
       <c r="I6">
-        <v>0.4507382064936274</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="J6">
-        <v>0.4507382064936274</v>
+        <v>0.1378282777968203</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.207039333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N6">
-        <v>6.621117999999999</v>
+        <v>0.199555</v>
       </c>
       <c r="O6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q6">
-        <v>2.396974195640889</v>
+        <v>0.01782276702388889</v>
       </c>
       <c r="R6">
-        <v>21.572767760768</v>
+        <v>0.160404903215</v>
       </c>
       <c r="S6">
-        <v>0.2973114720103736</v>
+        <v>0.00254151649210373</v>
       </c>
       <c r="T6">
-        <v>0.2973114720103736</v>
+        <v>0.002541516492103729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.258176</v>
       </c>
       <c r="I7">
-        <v>0.4507382064936274</v>
+        <v>0.5586732073740195</v>
       </c>
       <c r="J7">
-        <v>0.4507382064936274</v>
+        <v>0.5586732073740194</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.83074</v>
+        <v>0.162652</v>
       </c>
       <c r="N7">
-        <v>2.49222</v>
+        <v>0.487956</v>
       </c>
       <c r="O7">
-        <v>0.2482803471274498</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P7">
-        <v>0.2482803471274497</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q7">
-        <v>0.9022323767466668</v>
+        <v>0.1766496142506667</v>
       </c>
       <c r="R7">
-        <v>8.120091390720001</v>
+        <v>1.589846528256</v>
       </c>
       <c r="S7">
-        <v>0.1119094383718419</v>
+        <v>0.02519013503010319</v>
       </c>
       <c r="T7">
-        <v>0.1119094383718419</v>
+        <v>0.02519013503010318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,61 +912,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3246593333333334</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H8">
-        <v>0.973978</v>
+        <v>3.258176</v>
       </c>
       <c r="I8">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740195</v>
       </c>
       <c r="J8">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740194</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3081963333333333</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N8">
-        <v>0.924589</v>
+        <v>6.621118</v>
       </c>
       <c r="O8">
-        <v>0.09210955608663025</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P8">
-        <v>0.09210955608663024</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q8">
-        <v>0.1000588161157778</v>
+        <v>2.396974195640889</v>
       </c>
       <c r="R8">
-        <v>0.900529345042</v>
+        <v>21.572767760768</v>
       </c>
       <c r="S8">
-        <v>0.01241091120676131</v>
+        <v>0.3418071639046282</v>
       </c>
       <c r="T8">
-        <v>0.01241091120676131</v>
+        <v>0.3418071639046281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3246593333333334</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H9">
-        <v>0.973978</v>
+        <v>3.258176</v>
       </c>
       <c r="I9">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740195</v>
       </c>
       <c r="J9">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740194</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.207039333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N9">
-        <v>6.621117999999999</v>
+        <v>0.033305</v>
       </c>
       <c r="O9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q9">
-        <v>0.7165359186004444</v>
+        <v>0.01205706129777778</v>
       </c>
       <c r="R9">
-        <v>6.448823267403999</v>
+        <v>0.10851355168</v>
       </c>
       <c r="S9">
-        <v>0.08887636299749296</v>
+        <v>0.001719330118243421</v>
       </c>
       <c r="T9">
-        <v>0.08887636299749296</v>
+        <v>0.001719330118243421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3246593333333334</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H10">
-        <v>0.973978</v>
+        <v>3.258176</v>
       </c>
       <c r="I10">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740195</v>
       </c>
       <c r="J10">
-        <v>0.1347407558352435</v>
+        <v>0.5586732073740194</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.83074</v>
+        <v>1.160026</v>
       </c>
       <c r="N10">
-        <v>2.49222</v>
+        <v>3.480078</v>
       </c>
       <c r="O10">
-        <v>0.2482803471274498</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P10">
-        <v>0.2482803471274497</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q10">
-        <v>0.2697074945733334</v>
+        <v>1.259856290858667</v>
       </c>
       <c r="R10">
-        <v>2.42736745116</v>
+        <v>11.338706617728</v>
       </c>
       <c r="S10">
-        <v>0.0334534816309892</v>
+        <v>0.1796547941521191</v>
       </c>
       <c r="T10">
-        <v>0.0334534816309892</v>
+        <v>0.1796547941521191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6538603333333334</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H11">
-        <v>1.961581</v>
+        <v>3.258176</v>
       </c>
       <c r="I11">
-        <v>0.2713664031138822</v>
+        <v>0.5586732073740195</v>
       </c>
       <c r="J11">
-        <v>0.2713664031138822</v>
+        <v>0.5586732073740194</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3081963333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N11">
-        <v>0.924589</v>
+        <v>0.199555</v>
       </c>
       <c r="O11">
-        <v>0.09210955608663025</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P11">
-        <v>0.09210955608663024</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q11">
-        <v>0.2015173572454445</v>
+        <v>0.0722428124088889</v>
       </c>
       <c r="R11">
-        <v>1.813656215209</v>
+        <v>0.6501853116799999</v>
       </c>
       <c r="S11">
-        <v>0.02499543892764524</v>
+        <v>0.01030178416892556</v>
       </c>
       <c r="T11">
-        <v>0.02499543892764524</v>
+        <v>0.01030178416892556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6538603333333334</v>
+        <v>0.09494066666666667</v>
       </c>
       <c r="H12">
-        <v>1.961581</v>
+        <v>0.284822</v>
       </c>
       <c r="I12">
-        <v>0.2713664031138822</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="J12">
-        <v>0.2713664031138822</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.207039333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N12">
-        <v>6.621117999999999</v>
+        <v>0.487956</v>
       </c>
       <c r="O12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q12">
-        <v>1.443095474173111</v>
+        <v>0.01544228931466667</v>
       </c>
       <c r="R12">
-        <v>12.987859267558</v>
+        <v>0.138980603832</v>
       </c>
       <c r="S12">
-        <v>0.1789960194223948</v>
+        <v>0.002202061717827413</v>
       </c>
       <c r="T12">
-        <v>0.1789960194223948</v>
+        <v>0.002202061717827413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6538603333333334</v>
+        <v>0.09494066666666667</v>
       </c>
       <c r="H13">
-        <v>1.961581</v>
+        <v>0.284822</v>
       </c>
       <c r="I13">
-        <v>0.2713664031138822</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="J13">
-        <v>0.2713664031138822</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.83074</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N13">
-        <v>2.49222</v>
+        <v>6.621118</v>
       </c>
       <c r="O13">
-        <v>0.2482803471274498</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P13">
-        <v>0.2482803471274497</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q13">
-        <v>0.5431879333133334</v>
+        <v>0.2095377856662222</v>
       </c>
       <c r="R13">
-        <v>4.88869139982</v>
+        <v>1.885840070996</v>
       </c>
       <c r="S13">
-        <v>0.06737494476384212</v>
+        <v>0.02987996966328523</v>
       </c>
       <c r="T13">
-        <v>0.06737494476384212</v>
+        <v>0.02987996966328522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09811900000000001</v>
+        <v>0.09494066666666667</v>
       </c>
       <c r="H14">
-        <v>0.294357</v>
+        <v>0.284822</v>
       </c>
       <c r="I14">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="J14">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3081963333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N14">
-        <v>0.924589</v>
+        <v>0.033305</v>
       </c>
       <c r="O14">
-        <v>0.09210955608663025</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P14">
-        <v>0.09210955608663024</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q14">
-        <v>0.03023991603033334</v>
+        <v>0.001053999634444445</v>
       </c>
       <c r="R14">
-        <v>0.272159244273</v>
+        <v>0.009485996710000002</v>
       </c>
       <c r="S14">
-        <v>0.003750843027346244</v>
+        <v>0.0001502997514371009</v>
       </c>
       <c r="T14">
-        <v>0.003750843027346243</v>
+        <v>0.0001502997514371009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09811900000000001</v>
+        <v>0.09494066666666667</v>
       </c>
       <c r="H15">
-        <v>0.294357</v>
+        <v>0.284822</v>
       </c>
       <c r="I15">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="J15">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,42 +1364,42 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.207039333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N15">
-        <v>6.621117999999999</v>
+        <v>3.480078</v>
       </c>
       <c r="O15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P15">
-        <v>0.65961009678592</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q15">
-        <v>0.2165524923473333</v>
+        <v>0.1101336417906667</v>
       </c>
       <c r="R15">
-        <v>1.948972431126</v>
+        <v>0.9912027761160002</v>
       </c>
       <c r="S15">
-        <v>0.02686033933297573</v>
+        <v>0.01570499499719931</v>
       </c>
       <c r="T15">
-        <v>0.02686033933297573</v>
+        <v>0.01570499499719931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,666 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09811900000000001</v>
+        <v>0.09494066666666667</v>
       </c>
       <c r="H16">
-        <v>0.294357</v>
+        <v>0.284822</v>
       </c>
       <c r="I16">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="J16">
-        <v>0.04072154059475139</v>
+        <v>0.04883788361054865</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.83074</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N16">
-        <v>2.49222</v>
+        <v>0.199555</v>
       </c>
       <c r="O16">
-        <v>0.2482803471274498</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P16">
-        <v>0.2482803471274497</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q16">
-        <v>0.08151137806000001</v>
+        <v>0.006315294912222222</v>
       </c>
       <c r="R16">
-        <v>0.7336024025400001</v>
+        <v>0.05683765421</v>
       </c>
       <c r="S16">
-        <v>0.01011035823442941</v>
+        <v>0.0009005574807995995</v>
       </c>
       <c r="T16">
-        <v>0.01011035823442941</v>
+        <v>0.0009005574807995994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3987933333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.19638</v>
+      </c>
+      <c r="I17">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="J17">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.162652</v>
+      </c>
+      <c r="N17">
+        <v>0.487956</v>
+      </c>
+      <c r="O17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q17">
+        <v>0.06486453325333333</v>
+      </c>
+      <c r="R17">
+        <v>0.58378079928</v>
+      </c>
+      <c r="S17">
+        <v>0.009249645736545492</v>
+      </c>
+      <c r="T17">
+        <v>0.009249645736545492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3987933333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.19638</v>
+      </c>
+      <c r="I18">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="J18">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.621118</v>
+      </c>
+      <c r="O18">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P18">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q18">
+        <v>0.8801525725377778</v>
+      </c>
+      <c r="R18">
+        <v>7.92137315284</v>
+      </c>
+      <c r="S18">
+        <v>0.1255092587853508</v>
+      </c>
+      <c r="T18">
+        <v>0.1255092587853507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3987933333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.19638</v>
+      </c>
+      <c r="I19">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="J19">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.033305</v>
+      </c>
+      <c r="O19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q19">
+        <v>0.004427270655555556</v>
+      </c>
+      <c r="R19">
+        <v>0.0398454359</v>
+      </c>
+      <c r="S19">
+        <v>0.0006313262901893771</v>
+      </c>
+      <c r="T19">
+        <v>0.0006313262901893768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3987933333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.19638</v>
+      </c>
+      <c r="I20">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="J20">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.160026</v>
+      </c>
+      <c r="N20">
+        <v>3.480078</v>
+      </c>
+      <c r="O20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q20">
+        <v>0.4626106352933333</v>
+      </c>
+      <c r="R20">
+        <v>4.16349571764</v>
+      </c>
+      <c r="S20">
+        <v>0.0659680148118801</v>
+      </c>
+      <c r="T20">
+        <v>0.06596801481188008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3987933333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.19638</v>
+      </c>
+      <c r="I21">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="J21">
+        <v>0.205140990492266</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.199555</v>
+      </c>
+      <c r="O21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q21">
+        <v>0.02652706787777778</v>
+      </c>
+      <c r="R21">
+        <v>0.2387436109</v>
+      </c>
+      <c r="S21">
+        <v>0.003782744868300289</v>
+      </c>
+      <c r="T21">
+        <v>0.003782744868300288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.096266</v>
+      </c>
+      <c r="H22">
+        <v>0.288798</v>
+      </c>
+      <c r="I22">
+        <v>0.04951964072634568</v>
+      </c>
+      <c r="J22">
+        <v>0.04951964072634567</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.162652</v>
+      </c>
+      <c r="N22">
+        <v>0.487956</v>
+      </c>
+      <c r="O22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P22">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q22">
+        <v>0.015657857432</v>
+      </c>
+      <c r="R22">
+        <v>0.140920716888</v>
+      </c>
+      <c r="S22">
+        <v>0.002232801609373999</v>
+      </c>
+      <c r="T22">
+        <v>0.002232801609373999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.096266</v>
+      </c>
+      <c r="H23">
+        <v>0.288798</v>
+      </c>
+      <c r="I23">
+        <v>0.04951964072634568</v>
+      </c>
+      <c r="J23">
+        <v>0.04951964072634567</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.621118</v>
+      </c>
+      <c r="O23">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P23">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q23">
+        <v>0.2124628484626667</v>
+      </c>
+      <c r="R23">
+        <v>1.912165636164</v>
+      </c>
+      <c r="S23">
+        <v>0.03029708196283099</v>
+      </c>
+      <c r="T23">
+        <v>0.03029708196283098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.096266</v>
+      </c>
+      <c r="H24">
+        <v>0.288798</v>
+      </c>
+      <c r="I24">
+        <v>0.04951964072634568</v>
+      </c>
+      <c r="J24">
+        <v>0.04951964072634567</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.033305</v>
+      </c>
+      <c r="O24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P24">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q24">
+        <v>0.001068713043333333</v>
+      </c>
+      <c r="R24">
+        <v>0.00961841739</v>
+      </c>
+      <c r="S24">
+        <v>0.0001523978752186694</v>
+      </c>
+      <c r="T24">
+        <v>0.0001523978752186694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.096266</v>
+      </c>
+      <c r="H25">
+        <v>0.288798</v>
+      </c>
+      <c r="I25">
+        <v>0.04951964072634568</v>
+      </c>
+      <c r="J25">
+        <v>0.04951964072634567</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.160026</v>
+      </c>
+      <c r="N25">
+        <v>3.480078</v>
+      </c>
+      <c r="O25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P25">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q25">
+        <v>0.111671062916</v>
+      </c>
+      <c r="R25">
+        <v>1.005039566244</v>
+      </c>
+      <c r="S25">
+        <v>0.01592423037967982</v>
+      </c>
+      <c r="T25">
+        <v>0.01592423037967982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.096266</v>
+      </c>
+      <c r="H26">
+        <v>0.288798</v>
+      </c>
+      <c r="I26">
+        <v>0.04951964072634568</v>
+      </c>
+      <c r="J26">
+        <v>0.04951964072634567</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.199555</v>
+      </c>
+      <c r="O26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P26">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q26">
+        <v>0.006403453876666667</v>
+      </c>
+      <c r="R26">
+        <v>0.05763108489</v>
+      </c>
+      <c r="S26">
+        <v>0.0009131288992422031</v>
+      </c>
+      <c r="T26">
+        <v>0.0009131288992422028</v>
       </c>
     </row>
   </sheetData>
